--- a/BDA_WP_ja.xlsx
+++ b/BDA_WP_ja.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="7065" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="人物相関図" sheetId="2" r:id="rId1"/>
+    <sheet name="ロードマップ(JP)" sheetId="3" r:id="rId2"/>
+    <sheet name="ロードマップ(EN)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,285 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
-  <si>
-    <t>2018年9月</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018年8月</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018年12月</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2019年春</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018年7月</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CoinExchange上場に向けて、資金調達を行います。</t>
-    <rPh sb="12" eb="14">
-      <t>ジョウジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シキン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>チョウタツ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WavesトークンからERC223トークンへ移行します。</t>
-    <rPh sb="22" eb="24">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>また、配布済みのWavesトークンの交換対応を行います。</t>
-    <rPh sb="3" eb="5">
-      <t>ハイフ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取引所にて使用する公式ロゴ発表。</t>
-    <rPh sb="0" eb="2">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハッピョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ERC223対応</t>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・資金調達の実行</t>
-    <rPh sb="1" eb="3">
-      <t>シキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョウタツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ロゴ公式発表</t>
-    <rPh sb="3" eb="5">
-      <t>コウシキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハッピョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・？？取引所上場</t>
-    <rPh sb="3" eb="5">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・BDA利用可能店舗オープン</t>
-    <rPh sb="4" eb="6">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テンポ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ウォレット第1弾リリース</t>
-    <rPh sb="6" eb="7">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・CoinExchange上場</t>
-    <rPh sb="13" eb="15">
-      <t>ジョウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セキュリティの保たれた、安全なウォレットを提供します。</t>
-    <rPh sb="7" eb="8">
-      <t>タモ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>アンゼン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一つ目の取引所への上場を予定しております。</t>
-    <rPh sb="0" eb="1">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2019年7月</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二つ目の取引所への上場を予定しております。</t>
-    <rPh sb="0" eb="1">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どこになるかは、まだ未定です。</t>
-    <rPh sb="10" eb="12">
-      <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BDAが決済可能なバーをオープン予定です。</t>
-    <rPh sb="4" eb="6">
-      <t>ケッサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>2018年</t>
     <rPh sb="4" eb="5">
@@ -761,6 +483,292 @@
     <rPh sb="22" eb="24">
       <t>メザ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>May 10th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>June 1st</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>July 25th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beginning of September</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Middle of September</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>November</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth of Black Dia Coin </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>It is already active in various scenes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As Waves token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLACK DIA COIN come into existence.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Publication of White Papers · Official Web Announcement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>There was an announcement of the BDA project.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As a coin to support restaurants, change from Waves to ERC 223 standard, aim for listing.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swap period from Waves to ERC 223.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In accordance with the change to ERC 223 standard, swap will be performed.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pre-sales period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prior to listing, we will set up a pre-sales period and sell the products in advance.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Registered on  Exchange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>We aim to list on the first exchange.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>From here, it will be the start of a full-scale BDA project.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Provide  dedicated wallet for BDA.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>We provide high security wallet to store BDA.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing on multiple Exchanges </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BDA will aim for listing on multiple Exchanges.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Following September, we plan to list on multiple exchanges during this period.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Open a restaurant where crypto currency can be used</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Open a restaurant where crypto currency can be used.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Upgrading dedicated wallet for BDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aiming for higher state</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BDA will continue growing. Please also look forward to further announcements.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An official character </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Diatan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFC00000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> announced.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>we announced an official character Diatan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Middle of August</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beginning of September </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beginning of August </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">End of August </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  November </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>December</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>We are planning to release a next generation Wallet which is available</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for 2-step verification and DOM functions.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -768,7 +776,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,22 +789,6 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -859,6 +851,99 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -868,21 +953,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -891,32 +967,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -928,32 +986,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,136 +1061,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFB7E86-4017-4220-A357-FD23CA0A82BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7848600" y="238125"/>
-          <a:ext cx="180975" cy="7219950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF0314A-0554-424F-B0BF-0A5FD5407F5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7372350" y="542925"/>
-          <a:ext cx="1143000" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2041,7 +1999,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2833,6 +2791,816 @@
         <a:xfrm>
           <a:off x="2241176" y="12236824"/>
           <a:ext cx="932231" cy="920864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>303959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490258</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>299358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2664279" y="1370759"/>
+          <a:ext cx="54829" cy="13320874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="438150"/>
+          <a:ext cx="1695450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>274347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="752475"/>
+          <a:ext cx="908600" cy="902997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>274346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="2009775"/>
+          <a:ext cx="908600" cy="902996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>274346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="3267075"/>
+          <a:ext cx="908600" cy="902996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222657</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>276069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="5781675"/>
+          <a:ext cx="908457" cy="904719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248672</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>299691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="4524375"/>
+          <a:ext cx="934472" cy="928341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>221901</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="7038975"/>
+          <a:ext cx="907701" cy="946954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248672</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>295017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="8296275"/>
+          <a:ext cx="934472" cy="923667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="11249025"/>
+          <a:ext cx="1695450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217815</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>264273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="11249025"/>
+          <a:ext cx="903615" cy="892923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>20661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217815</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>280150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="13784286"/>
+          <a:ext cx="903615" cy="888139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>221901</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>271798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="9553575"/>
+          <a:ext cx="907701" cy="900448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248672</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>293336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="12506325"/>
+          <a:ext cx="934472" cy="921986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3148,414 +3916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="2:9" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B33" s="4"/>
-      <c r="C33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="B34" s="4"/>
-      <c r="C34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="C35" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="C36" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="C37" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3571,498 +3935,1381 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7" style="9" customWidth="1"/>
-    <col min="2" max="2" width="2.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="6.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="3" style="10" customWidth="1"/>
-    <col min="8" max="12" width="9" style="10"/>
-    <col min="13" max="16" width="9" style="9"/>
-    <col min="17" max="17" width="11.5" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="6.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="2" customWidth="1"/>
+    <col min="8" max="12" width="9" style="2"/>
+    <col min="13" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="11.5" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="6">
+        <v>43230</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="6">
+        <v>43252</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="6">
+        <v>43306</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="14">
-        <v>43230</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="6.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="2" customWidth="1"/>
+    <col min="8" max="12" width="9" style="2"/>
+    <col min="13" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="6.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="5" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="18"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="18"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="18"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="18"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="18"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="18"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13"/>
+      <c r="B15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="13"/>
+      <c r="B19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="13"/>
+      <c r="B20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="14">
-        <v>43252</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="13"/>
+      <c r="D27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="14">
-        <v>43306</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-    </row>
-    <row r="29" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D32" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11" t="s">
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="18"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-    </row>
-    <row r="38" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-    </row>
-    <row r="42" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+    </row>
+    <row r="33" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+    </row>
+    <row r="34" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+    </row>
+    <row r="37" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+    </row>
+    <row r="39" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+    </row>
+    <row r="40" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+    </row>
+    <row r="41" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="13"/>
+    </row>
+    <row r="42" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+    </row>
+    <row r="43" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+    </row>
+    <row r="45" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+    </row>
+    <row r="46" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/BDA_WP_ja.xlsx
+++ b/BDA_WP_ja.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>2018年</t>
     <rPh sb="4" eb="5">
@@ -672,12 +672,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>We are planning to release a next generation Wallet which is available</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for 2-step verification and DOM functions.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Beginning of September </t>
+      <t xml:space="preserve">  November </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <sz val="16"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beginning of August </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="14"/>
         <color theme="1" tint="4.9989318521683403E-2"/>
         <rFont val="ＭＳ Ｐ明朝"/>
@@ -690,11 +713,10 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Beginning of August </t>
+      <t xml:space="preserve">End of August </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="14"/>
         <color theme="1" tint="4.9989318521683403E-2"/>
         <rFont val="ＭＳ Ｐ明朝"/>
@@ -707,11 +729,10 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">End of August </t>
+      <t xml:space="preserve">Beginning of September </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="14"/>
         <color theme="1" tint="4.9989318521683403E-2"/>
         <rFont val="ＭＳ Ｐ明朝"/>
@@ -723,52 +744,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  November </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="游明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="游明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>December</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>We are planning to release a next generation Wallet which is available</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>for 2-step verification and DOM functions.</t>
+    <t>　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>December</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -776,7 +756,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,55 +872,15 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="16"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Garamond"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="游明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="游明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="游明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -967,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,23 +962,8 @@
     <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1080,7 +1005,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,7 +1055,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,7 +1105,7 @@
         <xdr:cNvPr id="4" name="矢印: 下カーブ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1169,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1219,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1269,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1319,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1454,7 @@
         <xdr:cNvPr id="22" name="グループ化 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1473,7 @@
           <xdr:cNvPr id="9" name="角丸四角形 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1627,7 +1552,7 @@
           <xdr:cNvPr id="10" name="図 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1660,7 +1585,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1725,7 +1650,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1790,7 +1715,7 @@
           <xdr:cNvPr id="14" name="図 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1823,7 +1748,7 @@
           <xdr:cNvPr id="15" name="図 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1858,7 +1783,7 @@
           <xdr:cNvPr id="17" name="図 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1893,7 +1818,7 @@
           <xdr:cNvPr id="18" name="図 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1928,7 +1853,7 @@
           <xdr:cNvPr id="20" name="図 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1963,7 +1888,7 @@
           <xdr:cNvPr id="21" name="図 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2019,7 +1944,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2012,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2067,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2124,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2181,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2238,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2295,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2352,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2409,7 @@
         <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2466,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2521,7 @@
         <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2578,7 @@
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2635,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,7 +2692,7 @@
         <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2754,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2822,7 @@
         <xdr:cNvPr id="3" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,7 +2877,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3009,7 +2934,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +2991,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3048,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3105,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +3162,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3219,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3351,7 +3276,7 @@
         <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3331,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3388,7 @@
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3520,7 +3445,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3577,7 +3502,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4440,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -4495,7 +4420,6 @@
       <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="18"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="15"/>
@@ -4514,7 +4438,6 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="18"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="15"/>
@@ -4533,7 +4456,6 @@
       <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="18"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="14"/>
@@ -4571,7 +4493,6 @@
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="18"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="15"/>
@@ -4590,7 +4511,6 @@
       <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="18"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="15"/>
@@ -4609,7 +4529,6 @@
       <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="18"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="14"/>
@@ -4702,11 +4621,11 @@
     </row>
     <row r="15" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="13"/>
-      <c r="B15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
@@ -4726,11 +4645,11 @@
     </row>
     <row r="16" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="15"/>
@@ -4749,9 +4668,9 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="14"/>
@@ -4768,9 +4687,9 @@
       <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="14"/>
@@ -4788,11 +4707,11 @@
     </row>
     <row r="19" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="13"/>
-      <c r="B19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
@@ -4812,11 +4731,11 @@
     </row>
     <row r="20" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="15"/>
@@ -4835,9 +4754,9 @@
       <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="14"/>
@@ -4854,9 +4773,9 @@
       <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="14"/>
@@ -4873,11 +4792,11 @@
       <c r="R22" s="13"/>
     </row>
     <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
@@ -4896,11 +4815,11 @@
       <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="15"/>
@@ -4976,7 +4895,7 @@
     </row>
     <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="13"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="15"/>
@@ -4996,7 +4915,7 @@
     </row>
     <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="14"/>
@@ -5014,7 +4933,7 @@
     </row>
     <row r="30" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="13"/>
-      <c r="D30" s="19"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="14"/>
@@ -5031,10 +4950,10 @@
       <c r="R30" s="13"/>
     </row>
     <row r="31" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="13"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
@@ -5053,10 +4972,12 @@
       <c r="R31" s="13"/>
     </row>
     <row r="32" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="19"/>
+      <c r="C32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="15"/>
@@ -5220,7 +5141,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -5238,7 +5159,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="14"/>
       <c r="H42" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>

--- a/BDA_WP_ja.xlsx
+++ b/BDA_WP_ja.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="7065" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="7065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物相関図" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>2018年</t>
     <rPh sb="4" eb="5">
@@ -74,26 +74,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8月上旬～</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　8月中旬</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WavesからERC223へのスワップ期間</t>
     <rPh sb="19" eb="21">
       <t>キカン</t>
@@ -133,26 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8月下旬～</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　9月上旬</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレセール期間</t>
     <rPh sb="5" eb="7">
       <t>キカン</t>
@@ -185,26 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9月上旬～</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　9月中旬</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>取引所上場</t>
     <rPh sb="0" eb="2">
       <t>トリヒキ</t>
@@ -490,22 +430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>June 1st</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>July 25th</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Beginning of September</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Middle of September</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>November</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -518,10 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>As Waves token</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BLACK DIA COIN come into existence.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -538,10 +458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Swap period from Waves to ERC 223.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>In accordance with the change to ERC 223 standard, swap will be performed.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -566,10 +482,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Provide  dedicated wallet for BDA.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>We provide high security wallet to store BDA.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -583,14 +495,6 @@
   </si>
   <si>
     <t>Following September, we plan to list on multiple exchanges during this period.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Open a restaurant where crypto currency can be used</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Open a restaurant where crypto currency can be used.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -668,7 +572,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Middle of August</t>
+    <t>for 2-step verification and DOM functions.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>June 1st</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>July 25th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>December</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As Waves token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swap period from Waves to ERC 223</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Provide  dedicated wallet for BDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Open a restaurant where crypto currency can be used</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -676,7 +612,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>for 2-step verification and DOM functions.</t>
+    <t>We open a restaurant where crypto currency can be used.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">August </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>September</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>October</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -685,7 +654,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
+        <sz val="18"/>
         <color theme="1" tint="4.9989318521683403E-2"/>
         <rFont val="游明朝"/>
         <family val="1"/>
@@ -693,62 +662,6 @@
       </rPr>
       <t>～</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Beginning of August </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">End of August </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Beginning of September </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>December</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -804,13 +717,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="游明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="游明朝"/>
       <family val="1"/>
@@ -872,17 +778,24 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="26"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Garamond"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="ＭＳ Ｐ明朝"/>
+      <name val="游明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -907,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,43 +839,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="56" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="56" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1005,7 +924,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +974,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1105,7 +1024,7 @@
         <xdr:cNvPr id="4" name="矢印: 下カーブ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,7 +1088,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1138,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1188,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1238,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1373,7 @@
         <xdr:cNvPr id="22" name="グループ化 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1392,7 @@
           <xdr:cNvPr id="9" name="角丸四角形 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1552,7 +1471,7 @@
           <xdr:cNvPr id="10" name="図 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1585,7 +1504,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1650,7 +1569,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1715,7 +1634,7 @@
           <xdr:cNvPr id="14" name="図 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1748,7 +1667,7 @@
           <xdr:cNvPr id="15" name="図 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1783,7 +1702,7 @@
           <xdr:cNvPr id="17" name="図 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1818,7 +1737,7 @@
           <xdr:cNvPr id="18" name="図 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1853,7 +1772,7 @@
           <xdr:cNvPr id="20" name="図 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1888,7 +1807,7 @@
           <xdr:cNvPr id="21" name="図 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1944,7 +1863,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +1931,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +1986,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +2043,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2100,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2157,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2214,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2271,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2328,7 @@
         <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2385,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2440,7 @@
         <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2497,7 @@
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2554,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2611,7 @@
         <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2673,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2741,7 @@
         <xdr:cNvPr id="3" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2796,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2853,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2910,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3048,7 +2967,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,7 +3024,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3081,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3219,7 +3138,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3276,7 +3195,7 @@
         <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,7 +3250,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,7 +3307,7 @@
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3364,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3502,7 +3421,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3864,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -3884,32 +3803,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="6">
+      <c r="D3" s="20">
         <v>43230</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3923,8 +3843,9 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3940,22 +3861,24 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="6">
+      <c r="D7" s="20">
         <v>43252</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
         <v>2</v>
@@ -3972,11 +3895,12 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -3990,22 +3914,24 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="6">
+      <c r="D11" s="20">
         <v>43306</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>6</v>
@@ -4023,11 +3949,12 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4042,28 +3969,27 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="16" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -4074,32 +4000,32 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -4113,32 +4039,32 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="D23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4149,11 +4075,12 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -4164,25 +4091,27 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="D27" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -4195,32 +4124,34 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="D31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="D32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -4232,11 +4163,11 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -4248,31 +4179,31 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -4283,26 +4214,26 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -4315,26 +4246,26 @@
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -4346,12 +4277,12 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4365,8 +4296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -4387,852 +4318,875 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="15">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="17" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-    </row>
-    <row r="9" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-    </row>
-    <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="17" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
     </row>
     <row r="27" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="13"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
     </row>
     <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="10"/>
     </row>
     <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
     </row>
     <row r="30" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
     </row>
     <row r="31" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
     </row>
     <row r="32" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="7" t="s">
-        <v>77</v>
+      <c r="C32" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
     </row>
     <row r="33" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
     </row>
     <row r="34" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
     </row>
     <row r="35" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="14">
+        <v>2019</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
     </row>
     <row r="36" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="16" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
     </row>
     <row r="37" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+    </row>
+    <row r="38" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-    </row>
-    <row r="38" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-    </row>
-    <row r="39" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-    </row>
-    <row r="40" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-    </row>
-    <row r="41" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="13"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="10"/>
     </row>
     <row r="42" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
     </row>
     <row r="43" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
     </row>
     <row r="44" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
     </row>
     <row r="45" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
     </row>
     <row r="46" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/BDA_WP_ja.xlsx
+++ b/BDA_WP_ja.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bdaproject\whitepaper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanaka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B5FC66-E022-463A-A94D-99417449F95C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="7065" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人物相関図" sheetId="2" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>2018年</t>
     <rPh sb="4" eb="5">
@@ -346,20 +347,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Wavesトークンとして、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  11月～</t>
-    <rPh sb="4" eb="5">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　 12月</t>
-    <rPh sb="5" eb="6">
-      <t>ガツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -635,13 +622,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10月</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
@@ -664,11 +644,25 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">  12月～</t>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 1月</t>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -863,12 +857,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +873,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,7 +918,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +968,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1024,7 +1018,7 @@
         <xdr:cNvPr id="4" name="矢印: 下カーブ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,7 +1082,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1132,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,7 +1182,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,7 +1232,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1367,7 @@
         <xdr:cNvPr id="22" name="グループ化 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1386,7 @@
           <xdr:cNvPr id="9" name="角丸四角形 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1471,7 +1465,7 @@
           <xdr:cNvPr id="10" name="図 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1504,7 +1498,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1569,7 +1563,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1634,7 +1628,7 @@
           <xdr:cNvPr id="14" name="図 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1667,7 +1661,7 @@
           <xdr:cNvPr id="15" name="図 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1702,7 +1696,7 @@
           <xdr:cNvPr id="17" name="図 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1737,7 +1731,7 @@
           <xdr:cNvPr id="18" name="図 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1772,7 +1766,7 @@
           <xdr:cNvPr id="20" name="図 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1807,7 +1801,7 @@
           <xdr:cNvPr id="21" name="図 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1863,7 +1857,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1925,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1980,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2037,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2094,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2151,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2208,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2265,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,21 +2308,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>248672</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>295017</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>295016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,22 +2364,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9897</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9897</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,8 +2387,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="537882" y="10611971"/>
-          <a:ext cx="1703294" cy="0"/>
+          <a:off x="546761" y="9960429"/>
+          <a:ext cx="1697181" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2440,7 +2434,7 @@
         <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2491,7 @@
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,21 +2534,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>221901</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>271798</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>40475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,8 +2570,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2241176" y="9412941"/>
-          <a:ext cx="905460" cy="899328"/>
+          <a:off x="2217964" y="8341178"/>
+          <a:ext cx="902258" cy="897726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2611,7 +2605,7 @@
         <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2667,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2735,7 @@
         <xdr:cNvPr id="3" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2790,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2847,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2904,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2967,7 +2961,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3024,7 +3018,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3075,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3132,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3195,7 +3189,7 @@
         <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3244,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3301,7 @@
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3364,7 +3358,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3421,7 +3415,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3759,10 +3753,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -3780,11 +3774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -3815,7 +3809,7 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>43230</v>
       </c>
       <c r="E3" s="6"/>
@@ -3825,7 +3819,7 @@
       </c>
     </row>
     <row r="4" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="16"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="3" t="s">
@@ -3843,7 +3837,7 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="16"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="3" t="s">
@@ -3861,12 +3855,12 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="16"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>43252</v>
       </c>
       <c r="E7" s="6"/>
@@ -3876,7 +3870,7 @@
       </c>
     </row>
     <row r="8" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="3"/>
@@ -3895,12 +3889,12 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="16"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -3914,12 +3908,12 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="16"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>43306</v>
       </c>
       <c r="E11" s="6"/>
@@ -3929,7 +3923,7 @@
       </c>
     </row>
     <row r="12" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="16"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="3"/>
@@ -3949,7 +3943,7 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="3"/>
@@ -3969,13 +3963,13 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="16"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="20" t="s">
-        <v>69</v>
+      <c r="D15" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -3984,7 +3978,7 @@
       </c>
     </row>
     <row r="16" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="16"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
@@ -3999,19 +3993,19 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="16"/>
+    <row r="17" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="14"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="16"/>
+    <row r="18" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="14"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="20" t="s">
-        <v>70</v>
+    <row r="19" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -4019,8 +4013,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="16"/>
+    <row r="20" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="14"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
@@ -4038,19 +4032,19 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="16"/>
+    <row r="21" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D21" s="14"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D22" s="16"/>
+    <row r="22" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D22" s="14"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="20" t="s">
-        <v>71</v>
+    <row r="23" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -4058,13 +4052,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="16"/>
+    <row r="24" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D24" s="14"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4074,8 +4068,8 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="16"/>
+    <row r="25" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="14"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="3"/>
@@ -4090,28 +4084,30 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D26" s="16"/>
+    <row r="26" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="14"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="20" t="s">
-        <v>14</v>
+    <row r="27" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="16"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D28" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -4121,53 +4117,51 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="16"/>
+    </row>
+    <row r="29" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D30" s="16"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="21" t="s">
-        <v>27</v>
-      </c>
+    <row r="31" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="4:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D32" s="16" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="32" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="18"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D33" s="14"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -4177,28 +4171,26 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D34" s="14"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="8"/>
+    <row r="35" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D35" s="14"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
       <c r="G36" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="3"/>
@@ -4213,22 +4205,22 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="3"/>
@@ -4245,22 +4237,22 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="3"/>
@@ -4276,11 +4268,11 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
@@ -4293,7 +4285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -4318,10 +4310,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="15">
+      <c r="C1" s="21">
         <v>2018</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
@@ -4330,14 +4322,14 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
-        <v>32</v>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -4352,13 +4344,13 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -4372,13 +4364,13 @@
       <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -4392,8 +4384,8 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="11"/>
@@ -4410,14 +4402,14 @@
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>57</v>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -4432,13 +4424,13 @@
       <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -4452,13 +4444,13 @@
       <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -4472,8 +4464,8 @@
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="11"/>
@@ -4490,14 +4482,14 @@
       <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="s">
-        <v>58</v>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -4512,13 +4504,13 @@
       <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4533,13 +4525,13 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -4554,8 +4546,8 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="11"/>
@@ -4574,14 +4566,14 @@
     <row r="15" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>66</v>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -4598,13 +4590,13 @@
     <row r="16" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -4619,8 +4611,8 @@
     </row>
     <row r="17" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="11"/>
@@ -4638,8 +4630,8 @@
     </row>
     <row r="18" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="11"/>
@@ -4658,14 +4650,14 @@
     <row r="19" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
-        <v>67</v>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -4682,13 +4674,13 @@
     <row r="20" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -4703,8 +4695,8 @@
     </row>
     <row r="21" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="11"/>
@@ -4722,8 +4714,8 @@
     </row>
     <row r="22" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="11"/>
@@ -4741,14 +4733,14 @@
     </row>
     <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="12"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>68</v>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -4764,13 +4756,13 @@
     </row>
     <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="12"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -4784,13 +4776,13 @@
       <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -4804,8 +4796,8 @@
       <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="11"/>
@@ -4822,14 +4814,14 @@
       <c r="R26" s="10"/>
     </row>
     <row r="27" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="18"/>
-      <c r="D27" s="17" t="s">
-        <v>33</v>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -4844,13 +4836,13 @@
       <c r="R27" s="10"/>
     </row>
     <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -4864,8 +4856,8 @@
       <c r="R28" s="10"/>
     </row>
     <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="11"/>
@@ -4882,8 +4874,8 @@
       <c r="R29" s="10"/>
     </row>
     <row r="30" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="11"/>
@@ -4900,14 +4892,14 @@
       <c r="R30" s="10"/>
     </row>
     <row r="31" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="18"/>
+      <c r="C31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="16"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -4922,17 +4914,17 @@
       <c r="R31" s="10"/>
     </row>
     <row r="32" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>59</v>
+      <c r="C32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -4950,7 +4942,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -4981,10 +4973,10 @@
     </row>
     <row r="35" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="8"/>
-      <c r="C35" s="14">
+      <c r="C35" s="20">
         <v>2019</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="11"/>
@@ -5004,7 +4996,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
       <c r="G36" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -5023,7 +5015,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -5072,7 +5064,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -5091,7 +5083,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -5109,7 +5101,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="11"/>
       <c r="H42" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
@@ -5142,7 +5134,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -5161,7 +5153,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>

--- a/BDA_WP_ja.xlsx
+++ b/BDA_WP_ja.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanaka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B5FC66-E022-463A-A94D-99417449F95C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69652D2C-0037-4420-95DC-35F963269D38}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,34 +380,6 @@
       <t>ジョウジョウ</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>メザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9月に続いて、この期間で複数の取引所に上場を目指します。</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ジョ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウジョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
       <t>メザ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -655,6 +627,34 @@
     <t>　　 1月</t>
     <rPh sb="4" eb="5">
       <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月に続いて、この期間で複数の取引所に上場を目指します。</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>メザ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3778,7 +3778,7 @@
   <dimension ref="B1:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="T6" sqref="T5:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="15" spans="3:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D15" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="19" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="27" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D27" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="28" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D28" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -4123,7 +4123,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -4324,12 +4324,12 @@
     <row r="3" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -4350,7 +4350,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -4370,7 +4370,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -4404,12 +4404,12 @@
     <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -4430,7 +4430,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -4450,7 +4450,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -4484,12 +4484,12 @@
     <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -4510,7 +4510,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4531,7 +4531,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -4568,12 +4568,12 @@
       <c r="B15" s="12"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -4596,7 +4596,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -4652,12 +4652,12 @@
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -4680,7 +4680,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -4735,12 +4735,12 @@
       <c r="B23" s="12"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -4762,7 +4762,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -4782,7 +4782,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -4816,12 +4816,12 @@
     <row r="27" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="16"/>
       <c r="D27" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -4842,7 +4842,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -4893,13 +4893,13 @@
     </row>
     <row r="31" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -4915,16 +4915,16 @@
     </row>
     <row r="32" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -4942,7 +4942,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -4996,7 +4996,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
       <c r="G36" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -5015,7 +5015,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -5064,7 +5064,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -5083,7 +5083,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -5101,7 +5101,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="11"/>
       <c r="H42" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
@@ -5134,7 +5134,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -5153,7 +5153,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
